--- a/output_excels/Greedy_Comparison.xlsx
+++ b/output_excels/Greedy_Comparison.xlsx
@@ -1,37 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve_niur\Desktop\X23299525_MSO_Taba\output_excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6178AA5-6E84-48F2-A274-F9B6CEC55394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Job Count</t>
+  </si>
+  <si>
+    <t>Greedy Time</t>
+  </si>
+  <si>
+    <t>IP Time</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Trendline Delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Difference Greedy vs IP </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +95,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,1024 +425,1026 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Job Count</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Greedy Time</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>IP Time</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Delta</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Trendline Delta</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>19</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>19</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>3.028571428571424</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>25</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>3.710204081632648</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="F3">
+        <v>3.7102040816326478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>31</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>31</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
-        <v>4.391836734693872</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="F4">
+        <v>4.3918367346938716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>38</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" t="n">
-        <v>5.073469387755097</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="F5">
+        <v>5.0734693877550967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>44</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>44</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>5.755102040816321</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="F6">
+        <v>5.7551020408163209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>52</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>52</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
-        <v>6.436734693877545</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="F7">
+        <v>6.4367346938775452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>65</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>59</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" t="n">
-        <v>7.118367346938768</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="F8">
+        <v>7.1183673469387676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>73</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>68</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9" t="n">
-        <v>7.799999999999994</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="F9">
+        <v>7.7999999999999936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>78</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>70</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="F10" t="n">
-        <v>8.481632653061217</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="F10">
+        <v>8.4816326530612169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>85</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>77</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>8</v>
       </c>
-      <c r="F11" t="n">
-        <v>9.163265306122442</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="F11">
+        <v>9.1632653061224421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>86</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>78</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>8</v>
       </c>
-      <c r="F12" t="n">
-        <v>9.844897959183665</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="F12">
+        <v>9.8448979591836654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>93</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>85</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>8</v>
       </c>
-      <c r="F13" t="n">
-        <v>10.52653061224489</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="F13">
+        <v>10.526530612244891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>95</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>87</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>8</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>11.20816326530611</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>98</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>90</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>8</v>
       </c>
-      <c r="F15" t="n">
-        <v>11.88979591836734</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="F15">
+        <v>11.889795918367341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>105</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>93</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>12</v>
       </c>
-      <c r="F16" t="n">
-        <v>12.57142857142856</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="F16">
+        <v>12.571428571428561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>114</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>102</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>12</v>
       </c>
-      <c r="F17" t="n">
-        <v>13.25306122448979</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="F17">
+        <v>13.253061224489789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>124</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>109</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>15</v>
       </c>
-      <c r="F18" t="n">
-        <v>13.93469387755101</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="F18">
+        <v>13.934693877551011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>132</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>113</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>19</v>
       </c>
-      <c r="F19" t="n">
-        <v>14.61632653061223</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="F19">
+        <v>14.616326530612231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>132</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>116</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>16</v>
       </c>
-      <c r="F20" t="n">
-        <v>15.29795918367346</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="F20">
+        <v>15.297959183673459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>141</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>120</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>21</v>
       </c>
-      <c r="F21" t="n">
-        <v>15.97959183673468</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="F21">
+        <v>15.979591836734681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>149</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>123</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>26</v>
       </c>
-      <c r="F22" t="n">
-        <v>16.66122448979591</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="F22">
+        <v>16.661224489795909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>149</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>127</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>22</v>
       </c>
-      <c r="F23" t="n">
-        <v>17.34285714285713</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="F23">
+        <v>17.342857142857131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>155</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>133</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>22</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>18.02448979591836</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>165</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>135</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>30</v>
       </c>
-      <c r="F25" t="n">
-        <v>18.70612244897958</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="F25">
+        <v>18.706122448979581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>167</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>140</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>27</v>
       </c>
-      <c r="F26" t="n">
-        <v>19.3877551020408</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="F26">
+        <v>19.387755102040799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>183</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>149</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>34</v>
       </c>
-      <c r="F27" t="n">
-        <v>20.06938775510203</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="F27">
+        <v>20.069387755102031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>180</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>154</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>26</v>
       </c>
-      <c r="F28" t="n">
-        <v>20.75102040816325</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="F28">
+        <v>20.751020408163249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>191</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>156</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>35</v>
       </c>
-      <c r="F29" t="n">
-        <v>21.43265306122447</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="F29">
+        <v>21.432653061224471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>187</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>160</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>27</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>22.1142857142857</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>190</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>168</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>22</v>
       </c>
-      <c r="F31" t="n">
-        <v>22.79591836734692</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="F31">
+        <v>22.795918367346921</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>195</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>173</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>22</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>23.47755102040815</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>202</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>176</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>26</v>
       </c>
-      <c r="F33" t="n">
-        <v>24.15918367346937</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="F33">
+        <v>24.159183673469371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>209</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>185</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>24</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>24.8408163265306</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>218</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>188</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>30</v>
       </c>
-      <c r="F35" t="n">
-        <v>25.52244897959182</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="F35">
+        <v>25.522448979591822</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>223</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>197</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>26</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>26.20408163265304</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>229</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>202</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>27</v>
       </c>
-      <c r="F37" t="n">
-        <v>26.88571428571427</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="F37">
+        <v>26.885714285714268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>234</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>207</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>27</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>27.56734693877549</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>237</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>213</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>24</v>
       </c>
-      <c r="F39" t="n">
-        <v>28.24897959183672</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="F39">
+        <v>28.248979591836719</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>239</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>220</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>19</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>28.93061224489794</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>246</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>222</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>24</v>
       </c>
-      <c r="F41" t="n">
-        <v>29.61224489795917</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="F41">
+        <v>29.612244897959169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>252</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>227</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>25</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>30.29387755102039</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>268</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>236</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>32</v>
       </c>
-      <c r="F43" t="n">
-        <v>30.97551020408161</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="F43">
+        <v>30.975510204081608</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>43</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>268</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>240</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>28</v>
       </c>
-      <c r="F44" t="n">
-        <v>31.65714285714284</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="F44">
+        <v>31.657142857142841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>279</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>241</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>38</v>
       </c>
-      <c r="F45" t="n">
-        <v>32.33877551020407</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="F45">
+        <v>32.338775510204073</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>45</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>280</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>248</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>32</v>
       </c>
-      <c r="F46" t="n">
-        <v>33.02040816326529</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="F46">
+        <v>33.020408163265287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>46</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>283</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>252</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>31</v>
       </c>
-      <c r="F47" t="n">
-        <v>33.70204081632651</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="F47">
+        <v>33.702040816326509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>47</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>284</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>254</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>30</v>
       </c>
-      <c r="F48" t="n">
-        <v>34.38367346938774</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="F48">
+        <v>34.383673469387737</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>48</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>287</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>259</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>28</v>
       </c>
-      <c r="F49" t="n">
-        <v>35.06530612244896</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="F49">
+        <v>35.065306122448959</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>49</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>297</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>267</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>30</v>
       </c>
-      <c r="F50" t="n">
-        <v>35.74693877551019</v>
+      <c r="F50">
+        <v>35.746938775510188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2">
+        <f>(C50-D50)/D50</f>
+        <v>0.11235955056179775</v>
       </c>
     </row>
   </sheetData>
